--- a/Team79 Burndown.xlsx
+++ b/Team79 Burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adisu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adisu\Desktop\IFB299\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E0CC8E11-094B-4079-A771-4EAE372D8D00}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5812BFBA-37DC-4930-B5B0-FB892C0FD3AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn down chart" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Sprint Days Remaining</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>ALSO DO A SPRINT 2 BURNDOWN AS WELL</t>
+  </si>
+  <si>
+    <t>Sprint 2 Burndown</t>
   </si>
 </sst>
 </file>
@@ -1084,10 +1087,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'Burn down chart'!$A$3:$A$7</c:f>
+              <c:f>'Burn down chart'!$A$3:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1096,30 +1099,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn down chart'!$B$3:$B$7</c:f>
+              <c:f>'Burn down chart'!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1171,10 +1168,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burn down chart'!$A$3:$A$7</c:f>
+              <c:f>'Burn down chart'!$A$3:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1183,12 +1180,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1204,6 +1195,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1532,6 +1526,803 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 2 Burn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Down C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>hart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn down chart'!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Tasks Remaining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$13:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down chart'!$B$40:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-072A-4276-8B90-2818418D0493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn down chart'!$C$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Tasks Remaining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$13:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down chart'!$C$40:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-072A-4276-8B90-2818418D0493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="590107240"/>
+        <c:axId val="590108552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="590107240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Days</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Remaning</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590108552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="590108552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Remaining</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590107240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="43137"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1612,6 +2403,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2129,6 +2960,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2717,6 +4064,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>126024</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>937113</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>134815</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AE27E4-CAD1-471C-A0C0-10293CBC265F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2990,8 +4375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3045,18 +4430,11 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
+      <c r="B5" s="1">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3326,25 +4704,260 @@
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1">
+        <v>25</v>
+      </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>19</v>
+      </c>
+      <c r="B41" s="1">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1">
+        <v>25</v>
+      </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>18</v>
+      </c>
+      <c r="B42" s="1">
+        <v>25</v>
+      </c>
+      <c r="C42" s="1">
+        <v>25</v>
+      </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>17</v>
+      </c>
+      <c r="B43" s="1">
+        <v>24</v>
+      </c>
+      <c r="C43" s="1">
+        <v>25</v>
+      </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>16</v>
+      </c>
+      <c r="B44" s="1">
+        <v>23</v>
+      </c>
+      <c r="C44" s="1">
+        <v>23</v>
+      </c>
       <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>15</v>
+      </c>
+      <c r="B45" s="1">
+        <v>22</v>
+      </c>
+      <c r="C45" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>14</v>
+      </c>
+      <c r="B46" s="1">
+        <v>20</v>
+      </c>
+      <c r="C46" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1">
+        <v>18</v>
+      </c>
+      <c r="C47" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1">
+        <v>17</v>
+      </c>
+      <c r="C48" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>11</v>
+      </c>
+      <c r="B49" s="1">
+        <v>15</v>
+      </c>
+      <c r="C49" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1">
+        <v>12</v>
+      </c>
+      <c r="C50" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>8</v>
+      </c>
+      <c r="B52" s="1">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
@@ -3447,12 +5060,13 @@
       <c r="D117" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A38:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
